--- a/UI Path Academy/002 RPA Citizen Developer Foundation/10 Power Point Automation StudioX/01 Working with Power Point/Input/MOCK_DATA.xlsx
+++ b/UI Path Academy/002 RPA Citizen Developer Foundation/10 Power Point Automation StudioX/01 Working with Power Point/Input/MOCK_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianca.dragu\Documents\UiPath\PowerPoint Automation Demo\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPath\UI Path Academy\002 RPA Citizen Developer Foundation\10 Power Point Automation StudioX\01 Working with Power Point\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476705C3-8460-4FD2-BD90-5E1CBEC3E81F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5409E-0E7F-4369-92C7-F1DF85D01307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14616" yWindow="-14100" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOCK_DATA" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -259,8 +259,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -743,8 +743,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3588,7 +3588,129 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1754ACF4-7298-4714-B762-46FAA0FB710B}" name="PivotTable19" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDACC1B7-93CC-4EDB-8E16-96AAD2D9F7F1}" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Amount" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1754ACF4-7298-4714-B762-46FAA0FB710B}" name="PivotTable19" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A26:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3667,110 +3789,6 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EDACC1B7-93CC-4EDB-8E16-96AAD2D9F7F1}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Amount" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -4092,18 +4110,18 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -4126,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -4149,7 +4167,7 @@
         <v>91528.51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -4173,7 +4191,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4197,7 +4215,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -4220,7 +4238,7 @@
         <v>45015.01</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -4243,7 +4261,7 @@
         <v>26746.18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -4266,7 +4284,7 @@
         <v>43199.58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4289,7 +4307,7 @@
         <v>99078.05</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -4312,7 +4330,7 @@
         <v>32613.53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4335,7 +4353,7 @@
         <v>27686.09</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -4358,7 +4376,7 @@
         <v>73735.320000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -4381,7 +4399,7 @@
         <v>23335.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -4404,7 +4422,7 @@
         <v>73077.119999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -4427,7 +4445,7 @@
         <v>73550.45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -4450,7 +4468,7 @@
         <v>93038.19</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4473,7 +4491,7 @@
         <v>17583.68</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -4496,7 +4514,7 @@
         <v>52688.53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -4519,7 +4537,7 @@
         <v>38132.92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>44464.14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4565,187 +4583,187 @@
         <v>16838.599999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="7:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="7:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G81" s="4"/>
     </row>
   </sheetData>
@@ -4769,13 +4787,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -4783,7 +4801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -4791,7 +4809,7 @@
         <v>379233.63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4799,7 +4817,7 @@
         <v>163898.57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -4807,7 +4825,7 @@
         <v>319006.68000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -4815,13 +4833,13 @@
         <v>73533.16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -4829,7 +4847,7 @@
         <v>935672.04</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -4837,7 +4855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -4845,7 +4863,7 @@
         <v>237435.84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
@@ -4853,13 +4871,13 @@
         <v>698236.20000000019</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
